--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/B宝箱信息表_Chests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/B宝箱信息表_Chests_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3C7DA-2C35-481A-B17D-E0EA9BD56B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BC1A9-31A7-4851-A498-3A06EB31CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,31 +352,31 @@
     <t>一个刻有神秘文字的石柱</t>
   </si>
   <si>
-    <t>Uma curiosa pedra de cristal que de alguma forma é capaz de criar caminhos através do tempo e do espaço.</t>
+    <t>Um cristal curioso que, de alguma forma, consegue forjar caminhos através do tempo e espaço.</t>
   </si>
   <si>
     <t>Um caminho que leva a uma mina abandonada.</t>
   </si>
   <si>
-    <t>Um local secreto de encontro dos Oryx.</t>
-  </si>
-  <si>
-    <t>A estrada para o Vale de Sirocco.</t>
+    <t>Um local de reunião secreto para os Oryx.</t>
+  </si>
+  <si>
+    <t>O caminho para o Vale de Sirocco.</t>
   </si>
   <si>
     <t>Um caminho que leva a algumas cavernas de calcário ao lado do Grande Rio.</t>
   </si>
   <si>
-    <t>Uma placa de sinalização.</t>
-  </si>
-  <si>
-    <t>Parece ser um local de culto.</t>
-  </si>
-  <si>
-    <t>Esta é uma das estátuas do Guerreiro de Fogo.</t>
-  </si>
-  <si>
-    <t>As lendas falam de um terrível Yeti que habita esta caverna.</t>
+    <t>Um marco indicativo.</t>
+  </si>
+  <si>
+    <t>Parece ser um local de adoração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este é um dos estátuas do Guerreiro do Fogo. </t>
+  </si>
+  <si>
+    <t>As lendas falam de um terrível Yeti que reside nesta caverna.</t>
   </si>
   <si>
     <t>Um acampamento temporário.</t>
@@ -388,7 +388,7 @@
     <t>Uma estranha névoa paira aqui.</t>
   </si>
   <si>
-    <t>A névoa permanece à beira do lago.</t>
+    <t>A névoa paira à beira do lago.</t>
   </si>
   <si>
     <t>Um pilar de pedra inscrito com glifos misteriosos.</t>
@@ -532,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -931,14 +934,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
@@ -1013,7 +1015,7 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="2"/>
@@ -1421,7 +1423,7 @@
       <c r="B70" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D70" s="3"/>
@@ -1588,7 +1590,7 @@
       </c>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" ht="22.5">
+    <row r="87" spans="1:4" ht="33.75">
       <c r="A87" s="8" t="s">
         <v>99</v>
       </c>
@@ -1600,7 +1602,7 @@
       </c>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="22.5">
       <c r="A88" s="8" t="s">
         <v>101</v>
       </c>
@@ -1612,7 +1614,7 @@
       </c>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" ht="22.5">
+    <row r="89" spans="1:4" ht="33.75">
       <c r="A89" s="8" t="s">
         <v>103</v>
       </c>
@@ -1624,7 +1626,7 @@
       </c>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" ht="22.5">
+    <row r="90" spans="1:4" ht="33.75">
       <c r="A90" s="8" t="s">
         <v>105</v>
       </c>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" ht="22.5">
+    <row r="91" spans="1:4" ht="33.75">
       <c r="A91" s="8" t="s">
         <v>107</v>
       </c>
